--- a/ILRG_ORAM_J_historial/ILRG_ORAM_J_historial-media/ILRG_ORAM_J_historial.xlsx
+++ b/ILRG_ORAM_J_historial/ILRG_ORAM_J_historial-media/ILRG_ORAM_J_historial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_J_historial\ILRG_ORAM_J_historial-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DD96F4-02C6-435B-981E-8A235154BBEC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDCC454-479A-488E-B714-153C40B2F4E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$33</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="1168">
   <si>
     <t>type</t>
   </si>
@@ -3521,14 +3521,87 @@
   <si>
     <t>${event_number}</t>
   </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3794,407 +3867,415 @@
   </borders>
   <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="241" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="241" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="241"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="241" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="241" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="241"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="241" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="242" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4778,7 +4859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5361,19 +5442,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.375" style="6" customWidth="1"/>
     <col min="4" max="16384" width="10.875" style="6"/>
   </cols>
@@ -5396,385 +5477,522 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="72" t="s">
         <v>1097</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="73" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="72" t="s">
         <v>1063</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="73" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="72" t="s">
         <v>1099</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="73" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="72" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="72" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C7" s="74" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="72" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="72" t="s">
         <v>1101</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C10" s="73" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B11" s="72" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="72" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C12" s="74" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="72" t="s">
         <v>1103</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C13" s="73" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B14" s="72" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="72" t="s">
         <v>1105</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C16" s="73" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B17" s="72" t="s">
         <v>1107</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C17" s="73" t="s">
         <v>1108</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B18" s="72" t="s">
         <v>1109</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C18" s="73" t="s">
         <v>1110</v>
       </c>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B19" s="72" t="s">
         <v>1111</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C19" s="73" t="s">
         <v>1112</v>
       </c>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B20" s="72" t="s">
         <v>1113</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C20" s="73" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B21" s="72" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="72" t="s">
         <v>1115</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C23" s="73" t="s">
         <v>1116</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B24" s="72" t="s">
         <v>1117</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C24" s="73" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B25" s="72" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C25" s="74" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="72" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C26" s="74" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="72" t="s">
         <v>1119</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C27" s="71" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="55"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="55"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="55"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="55"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="55"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B30" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C30" s="55" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B31" s="66" t="s">
         <v>1120</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C31" s="55" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B33" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B34" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C34" s="23" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B35" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C35" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B36" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C36" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B37" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C37" s="23" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B38" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C38" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B39" s="40" t="s">
         <v>1137</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C39" s="55" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="66" t="s">
+      <c r="B40" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C40" s="55" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="26" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C42" s="27" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B43" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C43" s="27" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B44" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C44" s="27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B45" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C45" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="26" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B46" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C46" s="27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="26" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B47" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C47" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B48" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C48" s="27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B49" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C49" s="27" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="26" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B50" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C50" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="26" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B51" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C51" s="27" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C20" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A942:C970">
-    <sortCondition ref="C942:C970"/>
+  <autoFilter ref="A1:C33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A955:C983">
+    <sortCondition ref="C955:C983"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -31092,7 +31310,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31126,7 +31344,7 @@
         <v>1065</v>
       </c>
       <c r="C2" s="25">
-        <v>201904032</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>1066</v>

--- a/ILRG_ORAM_J_historial/ILRG_ORAM_J_historial-media/ILRG_ORAM_J_historial.xlsx
+++ b/ILRG_ORAM_J_historial/ILRG_ORAM_J_historial-media/ILRG_ORAM_J_historial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_J_historial\ILRG_ORAM_J_historial-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8853AC24-6E71-4871-BD3D-F0DE1B5E14E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3889D5C-5DB5-4DF1-93D1-6EEF4B83A480}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="1167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="1173">
   <si>
     <t>type</t>
   </si>
@@ -3584,14 +3584,39 @@
   <si>
     <t>Wiwanana [Muelamassi]</t>
   </si>
+  <si>
+    <t>AS040024</t>
+  </si>
+  <si>
+    <t>Nari None [Inhanhane]</t>
+  </si>
+  <si>
+    <t>AS040025</t>
+  </si>
+  <si>
+    <t>Ohaua [Maripiha]</t>
+  </si>
+  <si>
+    <t>AS040023</t>
+  </si>
+  <si>
+    <t>Vahane Murima [Muyeye]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3864,408 +3889,416 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="243" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="243" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="243"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="243" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="243" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="243"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5994,9 +6027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2481D7-DFA2-4136-9610-A166FBF77081}">
   <dimension ref="A1:G4196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C549" sqref="C549"/>
+      <selection pane="bottomLeft" activeCell="C556" sqref="C556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13873,49 +13906,86 @@
       <c r="C536" s="65"/>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="61" t="s">
+      <c r="A537" s="73" t="s">
         <v>1062</v>
       </c>
-      <c r="B537" s="66" t="s">
+      <c r="B537" s="74" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C537" s="75" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D537" s="76"/>
+      <c r="E537" s="76"/>
+      <c r="F537" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="G537" s="65"/>
+    </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B538" s="74" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C538" s="75" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D538" s="76"/>
+      <c r="E538" s="76"/>
+      <c r="F538" s="76" t="s">
+        <v>642</v>
+      </c>
+      <c r="G538" s="65"/>
+    </row>
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B539" s="74" t="s">
         <v>1163</v>
       </c>
-      <c r="C537" s="65" t="s">
+      <c r="C539" s="75" t="s">
         <v>1164</v>
       </c>
-      <c r="F537" s="64" t="s">
+      <c r="D539" s="76"/>
+      <c r="E539" s="76"/>
+      <c r="F539" s="76" t="s">
         <v>642</v>
       </c>
-      <c r="G537" s="65"/>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="61" t="s">
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A540" s="73" t="s">
         <v>1062</v>
       </c>
-      <c r="B538" s="66" t="s">
+      <c r="B540" s="74" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C540" s="75" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D540" s="76"/>
+      <c r="E540" s="76"/>
+      <c r="F540" s="76" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A541" s="73" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B541" s="74" t="s">
         <v>1165</v>
       </c>
-      <c r="C538" s="65" t="s">
+      <c r="C541" s="75" t="s">
         <v>1166</v>
       </c>
-      <c r="F538" s="64" t="s">
+      <c r="D541" s="76"/>
+      <c r="E541" s="76"/>
+      <c r="F541" s="76" t="s">
         <v>642</v>
       </c>
-      <c r="G538" s="65"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="61"/>
-      <c r="B539" s="66"/>
-      <c r="C539" s="65"/>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="61"/>
-      <c r="B540" s="66"/>
-      <c r="C540" s="65"/>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="61"/>
-      <c r="B541" s="66"/>
-      <c r="C541" s="65"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="61"/>
@@ -31269,7 +31339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -31304,7 +31374,7 @@
         <v>1065</v>
       </c>
       <c r="C2" s="25">
-        <v>201904103</v>
+        <v>201904171</v>
       </c>
       <c r="D2" s="42" t="s">
         <v>1066</v>
